--- a/public/DataGsmMaster/template-gsm.xlsx
+++ b/public/DataGsmMaster/template-gsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dowloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10C8FEA-4A28-4C5B-98C1-2533056325D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45EB527-099B-40E7-BF5D-5DB28D50D86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="10200" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ready</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Terminate</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +447,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>628117560960</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+      <c r="G2">
+        <v>1234</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44476</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44476</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44476</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44476</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>628117560960</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+      <c r="F3">
+        <v>12345</v>
+      </c>
+      <c r="G3">
+        <v>1234</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44476</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44476</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44476</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44476</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
